--- a/back/tkb01.xlsx
+++ b/back/tkb01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t xml:space="preserve">subjectCode</t>
   </si>
@@ -58,19 +58,28 @@
     <t xml:space="preserve">subject01 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Pham HH      
+    <t xml:space="preserve">T7-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pham HH   
 NguyenThi H</t>
   </si>
   <si>
     <t xml:space="preserve">clc</t>
   </si>
   <si>
+    <t xml:space="preserve">T7-9</t>
+  </si>
+  <si>
     <t xml:space="preserve">NguyenThi H</t>
   </si>
   <si>
     <t xml:space="preserve">nvcl</t>
   </si>
   <si>
+    <t xml:space="preserve">T7-10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pham HH </t>
   </si>
   <si>
@@ -83,10 +92,25 @@
     <t xml:space="preserve">subject02 01</t>
   </si>
   <si>
+    <t xml:space="preserve">T7-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pham HH
+ NguyenThi H</t>
+  </si>
+  <si>
     <t xml:space="preserve">subject03</t>
   </si>
   <si>
     <t xml:space="preserve">subject03 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T7-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NguyenThi H
+Pham HH 
+</t>
   </si>
 </sst>
 </file>
@@ -145,6 +169,7 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -236,12 +261,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -265,15 +290,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.58"/>
   </cols>
   <sheetData>
@@ -309,7 +335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -322,26 +348,26 @@
       <c r="D2" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>44385</v>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>45</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="8" t="n">
         <v>3</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -354,26 +380,26 @@
       <c r="D3" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="n">
-        <v>44385</v>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="F3" s="8" t="n">
         <v>45</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" s="8" t="n">
         <v>3</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="49.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -386,31 +412,31 @@
       <c r="D4" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="10" t="n">
-        <v>44417</v>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="F4" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>16</v>
+      <c r="G4" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="H4" s="8" t="n">
         <v>3</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J4" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9" t="n">
         <v>1</v>
@@ -418,31 +444,31 @@
       <c r="D5" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="n">
-        <v>44480</v>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>30</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H5" s="8" t="n">
         <v>3</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" s="8" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>2</v>
@@ -450,20 +476,20 @@
       <c r="D6" s="8" t="n">
         <v>7</v>
       </c>
-      <c r="E6" s="10" t="n">
-        <v>44512</v>
+      <c r="E6" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>14</v>
+      <c r="G6" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="H6" s="8" t="n">
         <v>4</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" s="8" t="n">
         <v>1</v>
